--- a/po forecast comparison/B07T6N8N56_sales_po_comparison.xlsx
+++ b/po forecast comparison/B07T6N8N56_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1453,7 +1461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2586,6 +2594,17 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
         <v>0</v>
       </c>
     </row>
